--- a/research/IDP.xlsx
+++ b/research/IDP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ffb\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38918D3-F038-4DC7-89BA-A66D0BF691A1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC3C86-0F6A-4901-8B08-6F5F6602D088}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1005" windowWidth="21600" windowHeight="13980" xr2:uid="{09F0370E-5173-443F-8D9F-0088E41DB1DD}"/>
+    <workbookView xWindow="975" yWindow="750" windowWidth="21600" windowHeight="13980" activeTab="1" xr2:uid="{09F0370E-5173-443F-8D9F-0088E41DB1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,9 +523,6 @@
     <t>D Johnson</t>
   </si>
   <si>
-    <t>Cook</t>
-  </si>
-  <si>
     <t>FF</t>
   </si>
   <si>
@@ -545,6 +542,9 @@
   </si>
   <si>
     <t>GP</t>
+  </si>
+  <si>
+    <t>Bell</t>
   </si>
 </sst>
 </file>
@@ -627,8 +627,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,25 +946,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D8C44A-FBDF-4114-95E5-2FDCBEAE6E89}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="4.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -975,29 +975,29 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1009,10 +1009,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
@@ -1021,4115 +1021,4115 @@
         <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>188.9</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>111</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>52</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>12</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>7</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>8</v>
       </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2">
         <v>4</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>164.9</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
         <v>90</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>35</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>9</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>4</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>13</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>3</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>152.44999999999999</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <v>84</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>54</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>6</v>
       </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <v>11</v>
       </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>149.5</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>93</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>37</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>20</v>
       </c>
-      <c r="I6" s="3">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
         <v>6</v>
       </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
         <v>10</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>141.9</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>34</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>4</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>140.65</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>86</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>29</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>9</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>3.5</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>12</v>
       </c>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3">
-        <v>16</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="2">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
         <v>11</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>140.5</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>91</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>53</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>10</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>3</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2">
         <v>8</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>138.80000000000001</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>102</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>38</v>
       </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>7</v>
       </c>
-      <c r="K10" s="3">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="3">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="2">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
         <v>12</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>138.25</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>840</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>47</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>15</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>4</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>10</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>3</v>
       </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="3">
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="2">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>138.05000000000001</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
         <v>81</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>29</v>
       </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
         <v>9</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>5</v>
       </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="2">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>134.94999999999999</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>82</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>39</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>6</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>4</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>4</v>
       </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>2</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>14</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>7</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>133</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
         <v>94</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>26</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>13</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>3.5</v>
       </c>
-      <c r="J14" s="3">
-        <v>2</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>15</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>6</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>132.44999999999999</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
         <v>80</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>41</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>2</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
         <v>12</v>
       </c>
-      <c r="K15" s="3">
-        <v>2</v>
-      </c>
-      <c r="L15" s="3">
-        <v>2</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="2">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
         <v>6</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>132.1</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
         <v>89</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>32</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>8</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>5</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>5</v>
       </c>
-      <c r="K16" s="3">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
         <v>9</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>130.80000000000001</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
         <v>82</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>37</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>3</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>11</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>4</v>
       </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>128.5</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
         <v>79</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>46</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>3</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <v>6</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>127.8</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
         <v>80</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>40</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>6</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>3</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>6</v>
       </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>2</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
         <v>11</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>127.5</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>21</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>5</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="3">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="2">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2">
         <v>9</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>127</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
         <v>41</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>18</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>25</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>20.5</v>
       </c>
-      <c r="J21" s="3">
-        <v>1</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="3">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="2">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
         <v>6</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>126.5</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
         <v>89</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>37</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>9</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="2">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
         <v>12</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>125.5</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>20</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>75</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>30</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>4</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>3.5</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>13</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>3</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3">
-        <v>16</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="2">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>124.2</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
         <v>81</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>50</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>2</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="3">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="B25" s="2">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
         <v>10</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>122</v>
       </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
         <v>47</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>14</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>18</v>
       </c>
-      <c r="I25" s="3">
-        <v>16</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="I25" s="2">
+        <v>16</v>
+      </c>
+      <c r="J25" s="2">
         <v>4</v>
       </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
         <v>7</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="3">
-        <v>16</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="2">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
         <v>9</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>122</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
         <v>74</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>36</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>11</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>5</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>4</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>2</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2</v>
+      </c>
+      <c r="M26" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="3">
-        <v>16</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B27" s="2">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
         <v>11</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>121.95</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
         <v>64</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>33</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>8</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>6</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>6</v>
       </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>2</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>2</v>
+      </c>
+      <c r="M27" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>13</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>11</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>121.55</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
         <v>58</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>35</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>6</v>
       </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3">
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2">
         <v>8</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>5</v>
       </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="3">
-        <v>16</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="B29" s="2">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
         <v>6</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>121.05</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
         <v>73</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>27</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>9</v>
       </c>
-      <c r="I29" s="3">
-        <v>2</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
         <v>6</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>4</v>
       </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="3">
-        <v>16</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="2">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2">
         <v>10</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>121</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
         <v>80</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>34</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>6</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>0.5</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>7</v>
       </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="3">
-        <v>16</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="B31" s="2">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2">
         <v>12</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>120.1</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
         <v>51</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>21</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>21</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>14.5</v>
       </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="3">
-        <v>16</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="B32" s="2">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
         <v>10</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>119.5</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
         <v>73</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>31</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>13</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="3">
-        <v>16</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="B33" s="2">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2">
         <v>5</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>117.5</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
         <v>73</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>27</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>10</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>6</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>5</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>15</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>12</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>117</v>
       </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
         <v>81</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>54</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>7</v>
       </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
-      <c r="M34" s="3">
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="3">
-        <v>16</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="B35" s="2">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2">
         <v>6</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>116.6</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
         <v>76</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>26</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>8</v>
       </c>
-      <c r="I35" s="3">
-        <v>2</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2">
         <v>6</v>
       </c>
-      <c r="K35" s="3">
-        <v>2</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="K35" s="2">
+        <v>2</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="3">
-        <v>16</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="B36" s="2">
+        <v>16</v>
+      </c>
+      <c r="C36" s="2">
         <v>4</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>116.5</v>
       </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
         <v>85</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>39</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>3</v>
       </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
         <v>6</v>
       </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-      <c r="M36" s="3">
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="3">
-        <v>16</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="B37" s="2">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
         <v>10</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>116.45</v>
       </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
         <v>70</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>18</v>
       </c>
-      <c r="H37" s="3">
-        <v>2</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3">
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
         <v>10</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>3</v>
       </c>
-      <c r="L37" s="3">
-        <v>1</v>
-      </c>
-      <c r="M37" s="3">
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="3">
-        <v>16</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="B38" s="2">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
         <v>9</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>116.1</v>
       </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
         <v>73</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>38</v>
       </c>
-      <c r="H38" s="3">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3">
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
         <v>7</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>3</v>
       </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="3">
-        <v>16</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="B39" s="2">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
         <v>10</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>115.8</v>
       </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
         <v>79</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>18</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>6</v>
       </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3">
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
         <v>8</v>
       </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
         <v>3</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="3">
-        <v>16</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B40" s="2">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
         <v>7</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>115</v>
       </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
         <v>50</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>18</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>12</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <v>13</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>3</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
         <v>6</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>14</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>12</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>114.7</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
         <v>78</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>24</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>8</v>
       </c>
-      <c r="I41" s="3">
-        <v>2</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="3">
-        <v>16</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B42" s="2">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
         <v>10</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>114.7</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
         <v>70</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="2">
         <v>17</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
         <v>17</v>
       </c>
-      <c r="K42" s="3">
-        <v>2</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="K42" s="2">
+        <v>2</v>
+      </c>
+      <c r="L42" s="2">
+        <v>2</v>
+      </c>
+      <c r="M42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>14</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>10</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>113.9</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
         <v>73</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>34</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
         <v>5</v>
       </c>
-      <c r="K43" s="3">
-        <v>1</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
+      <c r="L43" s="2">
+        <v>2</v>
+      </c>
+      <c r="M43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>14</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>6</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>113.3</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
         <v>41</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>10</v>
       </c>
-      <c r="H44" s="3">
-        <v>2</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="H44" s="2">
+        <v>2</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
         <v>15</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>6</v>
       </c>
-      <c r="L44" s="3">
-        <v>2</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="L44" s="2">
+        <v>2</v>
+      </c>
+      <c r="M44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="3">
-        <v>16</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="B45" s="2">
+        <v>16</v>
+      </c>
+      <c r="C45" s="2">
         <v>12</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>112.8</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
         <v>67</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>17</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>9</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>3</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>6</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>3</v>
       </c>
-      <c r="L45" s="3">
-        <v>1</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="L45" s="2">
+        <v>1</v>
+      </c>
+      <c r="M45" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="3">
-        <v>16</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="B46" s="2">
+        <v>16</v>
+      </c>
+      <c r="C46" s="2">
         <v>10</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>111.6</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
         <v>75</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>32</v>
       </c>
-      <c r="H46" s="3">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
         <v>2.5</v>
       </c>
-      <c r="J46" s="3">
-        <v>1</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1</v>
+      </c>
+      <c r="M46" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="3">
-        <v>16</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="B47" s="2">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2">
         <v>6</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>110.75</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
         <v>80</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>13</v>
       </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
         <v>6</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>2</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="2">
+        <v>2</v>
+      </c>
+      <c r="M47" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="3">
-        <v>16</v>
-      </c>
-      <c r="C48" s="3">
+      <c r="B48" s="2">
+        <v>16</v>
+      </c>
+      <c r="C48" s="2">
         <v>11</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>109.69</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
         <v>62</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <v>28</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>3</v>
       </c>
-      <c r="I48" s="3">
-        <v>2</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="3">
-        <v>16</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="B49" s="2">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
         <v>6</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>108.95</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
         <v>55</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>19</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>11</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="2">
         <v>6.5</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <v>9</v>
       </c>
-      <c r="K49" s="3">
-        <v>2</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="K49" s="2">
+        <v>2</v>
+      </c>
+      <c r="L49" s="2">
+        <v>2</v>
+      </c>
+      <c r="M49" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="3">
-        <v>16</v>
-      </c>
-      <c r="C50" s="3">
+      <c r="B50" s="2">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
         <v>10</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>108.8</v>
       </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
         <v>55</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>37</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>5</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
         <v>3.5</v>
       </c>
-      <c r="J50" s="3">
-        <v>2</v>
-      </c>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1</v>
-      </c>
-      <c r="M50" s="3">
+      <c r="J50" s="2">
+        <v>2</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="3">
-        <v>16</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="B51" s="2">
+        <v>16</v>
+      </c>
+      <c r="C51" s="2">
         <v>10</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>108.5</v>
       </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="3">
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
         <v>53</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>19</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>20</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="2">
         <v>10.5</v>
       </c>
-      <c r="J51" s="3">
-        <v>2</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
-      <c r="L51" s="3">
-        <v>1</v>
-      </c>
-      <c r="M51" s="3">
+      <c r="J51" s="2">
+        <v>2</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>14</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>11</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>108</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
         <v>69</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>44</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>5</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <v>4.5</v>
       </c>
-      <c r="J52" s="3">
-        <v>2</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="J52" s="2">
+        <v>2</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="3">
-        <v>16</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="B53" s="2">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2">
         <v>9</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>107.7</v>
       </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
         <v>60</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>22</v>
       </c>
-      <c r="H53" s="3">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
         <v>10</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>7</v>
       </c>
-      <c r="L53" s="3">
-        <v>1</v>
-      </c>
-      <c r="M53" s="3">
+      <c r="L53" s="2">
+        <v>1</v>
+      </c>
+      <c r="M53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>15</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>6</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>107.55</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
         <v>69</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>36</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>10</v>
       </c>
-      <c r="I54" s="3">
-        <v>1</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>14</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <v>12</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>106.65</v>
       </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
         <v>63</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>45</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>3</v>
       </c>
-      <c r="I55" s="3">
-        <v>1</v>
-      </c>
-      <c r="J55" s="3">
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2">
         <v>7</v>
       </c>
-      <c r="K55" s="3">
-        <v>2</v>
-      </c>
-      <c r="L55" s="3">
-        <v>1</v>
-      </c>
-      <c r="M55" s="3">
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="3">
-        <v>16</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="B56" s="2">
+        <v>16</v>
+      </c>
+      <c r="C56" s="2">
         <v>12</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>106.6</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>6</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>70</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="2">
         <v>19</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>5</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <v>3</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <v>8</v>
       </c>
-      <c r="K56" s="3">
-        <v>2</v>
-      </c>
-      <c r="L56" s="3">
-        <v>0</v>
-      </c>
-      <c r="M56" s="3">
+      <c r="K56" s="2">
+        <v>2</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+      <c r="M56" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="3">
-        <v>16</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="B57" s="2">
+        <v>16</v>
+      </c>
+      <c r="C57" s="2">
         <v>12</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>106.5</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
         <v>35</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="2">
         <v>5</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>19</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <v>15.5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
-        <v>1</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>2</v>
+      </c>
+      <c r="M57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>15</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>7</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>105.45</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
         <v>72</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <v>13</v>
       </c>
-      <c r="H58" s="3">
-        <v>2</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="H58" s="2">
+        <v>2</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
         <v>9</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>14</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>6</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>105.35</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
         <v>37</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>10</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>10</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="2">
         <v>12.5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="L59" s="2">
         <v>6</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>13</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>7</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>105.3</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
         <v>57</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <v>46</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="2">
         <v>3</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="2">
         <v>3</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <v>6</v>
       </c>
-      <c r="K60" s="3">
-        <v>1</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="L60" s="2">
+        <v>2</v>
+      </c>
+      <c r="M60" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="3">
-        <v>16</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="B61" s="2">
+        <v>16</v>
+      </c>
+      <c r="C61" s="2">
         <v>11</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>104</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
         <v>60</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <v>9</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="2">
         <v>4</v>
       </c>
-      <c r="I61" s="3">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2">
         <v>12</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="2">
         <v>3</v>
       </c>
-      <c r="L61" s="3">
-        <v>1</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="L61" s="2">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="3">
-        <v>16</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B62" s="2">
+        <v>16</v>
+      </c>
+      <c r="C62" s="2">
         <v>10</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>104</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
         <v>63</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="2">
         <v>42</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="2">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="2">
         <v>1.5</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <v>7</v>
       </c>
-      <c r="K62" s="3">
-        <v>1</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="3">
-        <v>16</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="B63" s="2">
+        <v>16</v>
+      </c>
+      <c r="C63" s="2">
         <v>10</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>103.4</v>
       </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
         <v>71</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="2">
         <v>26</v>
       </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0</v>
-      </c>
-      <c r="J63" s="3">
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
         <v>4</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="2">
         <v>3</v>
       </c>
-      <c r="L63" s="3">
-        <v>0</v>
-      </c>
-      <c r="M63" s="3">
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="3">
-        <v>16</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="B64" s="2">
+        <v>16</v>
+      </c>
+      <c r="C64" s="2">
         <v>11</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>102.95</v>
       </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
         <v>66</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="2">
         <v>12</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="2">
         <v>4</v>
       </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="J64" s="3">
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
         <v>9</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="2">
         <v>3</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64" s="2">
         <v>3</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>15</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>4</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>102.5</v>
       </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
         <v>70</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="2">
         <v>35</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="2">
         <v>6</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="2">
         <v>0.5</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <v>5</v>
       </c>
-      <c r="K65" s="3">
-        <v>1</v>
-      </c>
-      <c r="L65" s="3">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3">
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>15</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>6</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>101.6</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
         <v>63</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="2">
         <v>14</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="2">
         <v>4</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="2">
         <v>1.5</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <v>11</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="2">
         <v>3</v>
       </c>
-      <c r="L66" s="3">
-        <v>1</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="L66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="3">
-        <v>16</v>
-      </c>
-      <c r="C67" s="3">
+      <c r="B67" s="2">
+        <v>16</v>
+      </c>
+      <c r="C67" s="2">
         <v>4</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>101.5</v>
       </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
         <v>42</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="2">
         <v>13</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="2">
         <v>13</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="2">
         <v>13</v>
       </c>
-      <c r="J67" s="3">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
-      <c r="L67" s="3">
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
         <v>7</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="3">
-        <v>16</v>
-      </c>
-      <c r="C68" s="3">
+      <c r="B68" s="2">
+        <v>16</v>
+      </c>
+      <c r="C68" s="2">
         <v>10</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>100.75</v>
       </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
         <v>29</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>19</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="2">
         <v>14</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="2">
         <v>14.5</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <v>3</v>
       </c>
-      <c r="K68" s="3">
-        <v>1</v>
-      </c>
-      <c r="L68" s="3">
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
         <v>4</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="3">
-        <v>16</v>
-      </c>
-      <c r="C69" s="3">
+      <c r="B69" s="2">
+        <v>16</v>
+      </c>
+      <c r="C69" s="2">
         <v>4</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>100.5</v>
       </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
         <v>44</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="2">
         <v>23</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="2">
         <v>17</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="2">
         <v>12</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <v>3</v>
       </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
-      <c r="L69" s="3">
-        <v>0</v>
-      </c>
-      <c r="M69" s="3">
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>13</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>6</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>100.05</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
         <v>52</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="2">
         <v>26</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="2">
         <v>12</v>
       </c>
-      <c r="I70" s="3">
-        <v>1</v>
-      </c>
-      <c r="J70" s="3">
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
         <v>7</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="2">
         <v>3</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="3">
-        <v>16</v>
-      </c>
-      <c r="C71" s="3">
+      <c r="B71" s="2">
+        <v>16</v>
+      </c>
+      <c r="C71" s="2">
         <v>10</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>99.5</v>
       </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
         <v>69</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="2">
         <v>27</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="2">
         <v>10</v>
       </c>
-      <c r="I71" s="3">
-        <v>1</v>
-      </c>
-      <c r="J71" s="3">
-        <v>1</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
-      <c r="L71" s="3">
-        <v>2</v>
-      </c>
-      <c r="M71" s="3">
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>2</v>
+      </c>
+      <c r="M71" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="3">
-        <v>16</v>
-      </c>
-      <c r="C72" s="3">
+      <c r="B72" s="2">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2">
         <v>5</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>99.25</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>4</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <v>64</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="2">
         <v>14</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="2">
         <v>3</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="2">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="3">
-        <v>16</v>
-      </c>
-      <c r="C73" s="3">
+      <c r="B73" s="2">
+        <v>16</v>
+      </c>
+      <c r="C73" s="2">
         <v>7</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>99</v>
       </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
         <v>48</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="2">
         <v>10</v>
       </c>
-      <c r="H73" s="3">
-        <v>16</v>
-      </c>
-      <c r="I73" s="3">
+      <c r="H73" s="2">
+        <v>16</v>
+      </c>
+      <c r="I73" s="2">
         <v>12.5</v>
       </c>
-      <c r="J73" s="3">
-        <v>2</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
-      <c r="L73" s="3">
-        <v>1</v>
-      </c>
-      <c r="M73" s="3">
+      <c r="J73" s="2">
+        <v>2</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="3">
-        <v>16</v>
-      </c>
-      <c r="C74" s="3">
+      <c r="B74" s="2">
+        <v>16</v>
+      </c>
+      <c r="C74" s="2">
         <v>8</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>98.9</v>
       </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
         <v>42</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="2">
         <v>22</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="2">
         <v>15</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="2">
         <v>10.5</v>
       </c>
-      <c r="J74" s="3">
-        <v>1</v>
-      </c>
-      <c r="K74" s="3">
-        <v>1</v>
-      </c>
-      <c r="L74" s="3">
-        <v>2</v>
-      </c>
-      <c r="M74" s="3">
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="L74" s="2">
+        <v>2</v>
+      </c>
+      <c r="M74" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>15</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>6</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>98.4</v>
       </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
         <v>57</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="2">
         <v>9</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="2">
         <v>3</v>
       </c>
-      <c r="I75" s="3">
-        <v>0</v>
-      </c>
-      <c r="J75" s="3">
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
         <v>12</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="2">
         <v>3</v>
       </c>
-      <c r="L75" s="3">
-        <v>2</v>
-      </c>
-      <c r="M75" s="3">
+      <c r="L75" s="2">
+        <v>2</v>
+      </c>
+      <c r="M75" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="3">
-        <v>16</v>
-      </c>
-      <c r="C76" s="3">
+      <c r="B76" s="2">
+        <v>16</v>
+      </c>
+      <c r="C76" s="2">
         <v>5</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>98</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
         <v>69</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="2">
         <v>36</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="2">
         <v>5</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>2</v>
+      </c>
+      <c r="M76" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>14</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>5</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>97.95</v>
       </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="3">
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
         <v>57</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="2">
         <v>15</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="2">
         <v>4</v>
       </c>
-      <c r="I77" s="3">
-        <v>0</v>
-      </c>
-      <c r="J77" s="3">
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2">
         <v>9</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="2">
         <v>3</v>
       </c>
-      <c r="L77" s="3">
-        <v>0</v>
-      </c>
-      <c r="M77" s="3">
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="3">
-        <v>16</v>
-      </c>
-      <c r="C78" s="3">
+      <c r="B78" s="2">
+        <v>16</v>
+      </c>
+      <c r="C78" s="2">
         <v>7</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>97.5</v>
       </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
         <v>63</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="2">
         <v>11</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="2">
         <v>4</v>
       </c>
-      <c r="I78" s="3">
-        <v>1</v>
-      </c>
-      <c r="J78" s="3">
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2">
         <v>9</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="2">
         <v>4</v>
       </c>
-      <c r="L78" s="3">
-        <v>1</v>
-      </c>
-      <c r="M78" s="3">
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+      <c r="M78" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B79" s="3">
-        <v>16</v>
-      </c>
-      <c r="C79" s="3">
+      <c r="B79" s="2">
+        <v>16</v>
+      </c>
+      <c r="C79" s="2">
         <v>12</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>97.5</v>
       </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
         <v>65</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="2">
         <v>29</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="2">
         <v>4</v>
       </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
-      <c r="J79" s="3">
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
         <v>9</v>
       </c>
-      <c r="K79" s="3">
-        <v>1</v>
-      </c>
-      <c r="L79" s="3">
-        <v>1</v>
-      </c>
-      <c r="M79" s="3">
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1</v>
+      </c>
+      <c r="M79" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="3">
-        <v>16</v>
-      </c>
-      <c r="C80" s="3">
+      <c r="B80" s="2">
+        <v>16</v>
+      </c>
+      <c r="C80" s="2">
         <v>7</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <v>95.9</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>25</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>58</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="2">
         <v>10</v>
       </c>
-      <c r="H80" s="3">
-        <v>2</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0</v>
-      </c>
-      <c r="J80" s="3">
+      <c r="H80" s="2">
+        <v>2</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2">
         <v>15</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="2">
         <v>4</v>
       </c>
-      <c r="L80" s="3">
-        <v>0</v>
-      </c>
-      <c r="M80" s="3">
+      <c r="L80" s="2">
+        <v>0</v>
+      </c>
+      <c r="M80" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="3">
-        <v>16</v>
-      </c>
-      <c r="C81" s="3">
+      <c r="B81" s="2">
+        <v>16</v>
+      </c>
+      <c r="C81" s="2">
         <v>6</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>95.2</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>-3</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <v>63</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="2">
         <v>12</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2">
         <v>5</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="2">
         <v>4</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>15</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>10</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>95</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
         <v>67</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="2">
         <v>30</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="2">
         <v>4</v>
       </c>
-      <c r="I82" s="3">
-        <v>2</v>
-      </c>
-      <c r="J82" s="3">
+      <c r="I82" s="2">
+        <v>2</v>
+      </c>
+      <c r="J82" s="2">
         <v>4</v>
       </c>
-      <c r="K82" s="3">
-        <v>0</v>
-      </c>
-      <c r="L82" s="3">
-        <v>0</v>
-      </c>
-      <c r="M82" s="3">
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>14</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>7</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>94.95</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
         <v>66</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="2">
         <v>13</v>
       </c>
-      <c r="H83" s="3">
-        <v>1</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2">
         <v>9</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="2">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>1</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="2">
+        <v>1</v>
+      </c>
+      <c r="M83" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="3">
-        <v>16</v>
-      </c>
-      <c r="C84" s="3">
+      <c r="B84" s="2">
+        <v>16</v>
+      </c>
+      <c r="C84" s="2">
         <v>10</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>94.7</v>
       </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
         <v>41</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="2">
         <v>19</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="2">
         <v>14</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="2">
         <v>12</v>
       </c>
-      <c r="J84" s="3">
-        <v>1</v>
-      </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3">
-        <v>2</v>
-      </c>
-      <c r="M84" s="3">
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>2</v>
+      </c>
+      <c r="M84" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B85" s="3">
-        <v>16</v>
-      </c>
-      <c r="C85" s="3">
+      <c r="B85" s="2">
+        <v>16</v>
+      </c>
+      <c r="C85" s="2">
         <v>6</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>94.6</v>
       </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
         <v>45</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="2">
         <v>10</v>
       </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3">
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
         <v>21</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="2">
         <v>7</v>
       </c>
-      <c r="L85" s="3">
-        <v>0</v>
-      </c>
-      <c r="M85" s="3">
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>15</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <v>9</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>94.05</v>
       </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
         <v>62</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="2">
         <v>13</v>
       </c>
-      <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86" s="3">
-        <v>0</v>
-      </c>
-      <c r="J86" s="3">
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
         <v>14</v>
       </c>
-      <c r="K86" s="3">
-        <v>2</v>
-      </c>
-      <c r="L86" s="3">
-        <v>1</v>
-      </c>
-      <c r="M86" s="3">
+      <c r="K86" s="2">
+        <v>2</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>15</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <v>12</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>94</v>
       </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
         <v>64</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="2">
         <v>18</v>
       </c>
-      <c r="H87" s="3">
-        <v>1</v>
-      </c>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3">
+      <c r="H87" s="2">
+        <v>1</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
         <v>12</v>
       </c>
-      <c r="K87" s="3">
-        <v>2</v>
-      </c>
-      <c r="L87" s="3">
-        <v>1</v>
-      </c>
-      <c r="M87" s="3">
+      <c r="K87" s="2">
+        <v>2</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>12</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>12</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>93.65</v>
       </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
         <v>61</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="2">
         <v>30</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="2">
         <v>5</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="2">
         <v>3</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="2">
         <v>5</v>
       </c>
-      <c r="K88" s="3">
-        <v>0</v>
-      </c>
-      <c r="L88" s="3">
-        <v>0</v>
-      </c>
-      <c r="M88" s="3">
+      <c r="K88" s="2">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B89" s="3">
-        <v>16</v>
-      </c>
-      <c r="C89" s="3">
+      <c r="B89" s="2">
+        <v>16</v>
+      </c>
+      <c r="C89" s="2">
         <v>12</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <v>93.5</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
         <v>38</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="2">
         <v>11</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="2">
         <v>13</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="2">
         <v>13</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
         <v>4</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B90" s="3">
-        <v>16</v>
-      </c>
-      <c r="C90" s="3">
+      <c r="B90" s="2">
+        <v>16</v>
+      </c>
+      <c r="C90" s="2">
         <v>10</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <v>93.4</v>
       </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
         <v>59</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="2">
         <v>23</v>
       </c>
-      <c r="H90" s="3">
-        <v>1</v>
-      </c>
-      <c r="I90" s="3">
-        <v>0</v>
-      </c>
-      <c r="J90" s="3">
+      <c r="H90" s="2">
+        <v>1</v>
+      </c>
+      <c r="I90" s="2">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2">
         <v>4</v>
       </c>
-      <c r="K90" s="3">
-        <v>1</v>
-      </c>
-      <c r="L90" s="3">
-        <v>1</v>
-      </c>
-      <c r="M90" s="3">
+      <c r="K90" s="2">
+        <v>1</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1</v>
+      </c>
+      <c r="M90" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="3">
-        <v>16</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="B91" s="2">
+        <v>16</v>
+      </c>
+      <c r="C91" s="2">
         <v>9</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>93</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
         <v>35</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="2">
         <v>14</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="2">
         <v>18</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="2">
         <v>12</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="2">
         <v>6</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>1</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1</v>
+      </c>
+      <c r="M91" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="3">
-        <v>16</v>
-      </c>
-      <c r="C92" s="3">
+      <c r="B92" s="2">
+        <v>16</v>
+      </c>
+      <c r="C92" s="2">
         <v>8</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <v>92.75</v>
       </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3">
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
         <v>63</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="2">
         <v>22</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="2">
         <v>6</v>
       </c>
-      <c r="I92" s="3">
-        <v>0</v>
-      </c>
-      <c r="J92" s="3">
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+      <c r="J92" s="2">
         <v>5</v>
       </c>
-      <c r="K92" s="3">
-        <v>1</v>
-      </c>
-      <c r="L92" s="3">
-        <v>1</v>
-      </c>
-      <c r="M92" s="3">
+      <c r="K92" s="2">
+        <v>1</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>14</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <v>5</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>92.55</v>
       </c>
-      <c r="E93" s="3">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3">
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
         <v>63</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="2">
         <v>23</v>
       </c>
-      <c r="H93" s="3">
-        <v>1</v>
-      </c>
-      <c r="I93" s="3">
-        <v>0</v>
-      </c>
-      <c r="J93" s="3">
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+      <c r="I93" s="2">
+        <v>0</v>
+      </c>
+      <c r="J93" s="2">
         <v>5</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="2">
         <v>3</v>
       </c>
-      <c r="L93" s="3">
-        <v>0</v>
-      </c>
-      <c r="M93" s="3">
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>12</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>10</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>92.5</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
         <v>67</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="2">
         <v>29</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="2">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>1</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="K94" s="2">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>15</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <v>12</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>92.15</v>
       </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3">
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
         <v>64</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="2">
         <v>13</v>
       </c>
-      <c r="H95" s="3">
-        <v>1</v>
-      </c>
-      <c r="I95" s="3">
-        <v>1</v>
-      </c>
-      <c r="J95" s="3">
+      <c r="H95" s="2">
+        <v>1</v>
+      </c>
+      <c r="I95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2">
         <v>5</v>
       </c>
-      <c r="K95" s="3">
-        <v>2</v>
-      </c>
-      <c r="L95" s="3">
-        <v>0</v>
-      </c>
-      <c r="M95" s="3">
+      <c r="K95" s="2">
+        <v>2</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>15</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <v>12</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>92</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
         <v>61</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="2">
         <v>36</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="2">
         <v>4</v>
       </c>
-      <c r="I96" s="3">
-        <v>1</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2">
         <v>5</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>1</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="K96" s="2">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1</v>
+      </c>
+      <c r="M96" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>14</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <v>7</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>91.85</v>
       </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
         <v>50</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="2">
         <v>26</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="2">
         <v>8</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="2">
         <v>4.5</v>
       </c>
-      <c r="J97" s="3">
-        <v>2</v>
-      </c>
-      <c r="K97" s="3">
-        <v>1</v>
-      </c>
-      <c r="L97" s="3">
-        <v>0</v>
-      </c>
-      <c r="M97" s="3">
+      <c r="J97" s="2">
+        <v>2</v>
+      </c>
+      <c r="K97" s="2">
+        <v>1</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B98" s="3">
-        <v>16</v>
-      </c>
-      <c r="C98" s="3">
+      <c r="B98" s="2">
+        <v>16</v>
+      </c>
+      <c r="C98" s="2">
         <v>5</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>91.7</v>
       </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
         <v>51</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="2">
         <v>29</v>
       </c>
-      <c r="H98" s="3">
-        <v>2</v>
-      </c>
-      <c r="I98" s="3">
-        <v>0</v>
-      </c>
-      <c r="J98" s="3">
+      <c r="H98" s="2">
+        <v>2</v>
+      </c>
+      <c r="I98" s="2">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
         <v>9</v>
       </c>
-      <c r="K98" s="3">
-        <v>2</v>
-      </c>
-      <c r="L98" s="3">
-        <v>0</v>
-      </c>
-      <c r="M98" s="3">
+      <c r="K98" s="2">
+        <v>2</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B99" s="3">
-        <v>16</v>
-      </c>
-      <c r="C99" s="3">
+      <c r="B99" s="2">
+        <v>16</v>
+      </c>
+      <c r="C99" s="2">
         <v>5</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <v>91.25</v>
       </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="E99" s="2">
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
         <v>57</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="2">
         <v>22</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="2">
         <v>4</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="2">
         <v>3</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="2">
         <v>3</v>
       </c>
-      <c r="K99" s="3">
-        <v>1</v>
-      </c>
-      <c r="L99" s="3">
-        <v>0</v>
-      </c>
-      <c r="M99" s="3">
+      <c r="K99" s="2">
+        <v>1</v>
+      </c>
+      <c r="L99" s="2">
+        <v>0</v>
+      </c>
+      <c r="M99" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B100" s="3">
-        <v>16</v>
-      </c>
-      <c r="C100" s="3">
+      <c r="B100" s="2">
+        <v>16</v>
+      </c>
+      <c r="C100" s="2">
         <v>11</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <v>90.95</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="E100" s="2">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2">
         <v>59</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="2">
         <v>11</v>
       </c>
-      <c r="H100" s="3">
-        <v>2</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="H100" s="2">
+        <v>2</v>
+      </c>
+      <c r="I100" s="2">
+        <v>0</v>
+      </c>
+      <c r="J100" s="2">
         <v>15</v>
       </c>
-      <c r="K100" s="3">
-        <v>2</v>
-      </c>
-      <c r="L100" s="3">
-        <v>1</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="K100" s="2">
+        <v>2</v>
+      </c>
+      <c r="L100" s="2">
+        <v>1</v>
+      </c>
+      <c r="M100" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="3">
-        <v>16</v>
-      </c>
-      <c r="C101" s="3">
+      <c r="B101" s="2">
+        <v>16</v>
+      </c>
+      <c r="C101" s="2">
         <v>4</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="2">
         <v>90.6</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="E101" s="2">
+        <v>0</v>
+      </c>
+      <c r="F101" s="2">
         <v>53</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="2">
         <v>21</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="2">
         <v>4</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="2">
         <v>3</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="2">
         <v>6</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="2">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="L101" s="2">
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B102" s="3">
-        <v>16</v>
-      </c>
-      <c r="C102" s="3">
+      <c r="B102" s="2">
+        <v>16</v>
+      </c>
+      <c r="C102" s="2">
         <v>7</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="2">
         <v>90.5</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
         <v>35</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="2">
         <v>9</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="2">
         <v>12</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="2">
         <v>13.5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="2">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="2">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="2">
         <v>0</v>
       </c>
     </row>
@@ -5160,10 +5160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B93588-72C2-4F75-B923-764217789420}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5228,7 +5228,7 @@
         <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>158</v>
@@ -5248,10 +5248,10 @@
         <v>160</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5297,55 +5297,58 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
         <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
         <v>138</v>
@@ -5357,53 +5360,53 @@
         <v>136</v>
       </c>
       <c r="J9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" t="s">
         <v>137</v>
-      </c>
-      <c r="K9" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
         <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J10" t="s">
         <v>136</v>
       </c>
       <c r="K10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>137</v>
@@ -5412,441 +5415,409 @@
         <v>136</v>
       </c>
       <c r="E11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
         <v>137</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>137</v>
-      </c>
-      <c r="G11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H11" t="s">
-        <v>139</v>
       </c>
       <c r="I11" t="s">
         <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" t="s">
-        <v>137</v>
-      </c>
-      <c r="J12" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
         <v>137</v>
       </c>
       <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
         <v>137</v>
       </c>
-      <c r="G16" t="s">
-        <v>138</v>
-      </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
         <v>136</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
         <v>137</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
         <v>137</v>
       </c>
-      <c r="D17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" t="s">
-        <v>136</v>
-      </c>
       <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
         <v>137</v>
       </c>
-      <c r="I17" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" t="s">
         <v>138</v>
       </c>
-      <c r="J17" t="s">
+      <c r="F20" t="s">
         <v>137</v>
       </c>
-      <c r="K17" t="s">
+      <c r="G20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="H21" t="s">
         <v>138</v>
       </c>
-      <c r="C18" t="s">
+      <c r="I21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J21" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
         <v>137</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D22" t="s">
         <v>137</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E22" t="s">
         <v>137</v>
       </c>
-      <c r="F18" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" t="s">
         <v>137</v>
       </c>
-      <c r="H18" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H22" t="s">
         <v>137</v>
       </c>
-      <c r="J18" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="I22" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" t="s">
         <v>137</v>
-      </c>
-      <c r="E19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" t="s">
-        <v>136</v>
-      </c>
-      <c r="J19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J21" t="s">
-        <v>115</v>
-      </c>
-      <c r="K21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>8</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" t="s">
         <v>137</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" t="s">
         <v>137</v>
       </c>
-      <c r="D23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="I23" t="s">
         <v>138</v>
-      </c>
-      <c r="F23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" t="s">
-        <v>136</v>
       </c>
       <c r="J23" t="s">
         <v>137</v>
       </c>
       <c r="K23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" t="s">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24" t="s">
-        <v>138</v>
-      </c>
-      <c r="J24" t="s">
-        <v>136</v>
-      </c>
-      <c r="K24" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>143</v>
-      </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="K25" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
         <v>136</v>
@@ -5855,7 +5826,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -5864,7 +5835,7 @@
         <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
         <v>138</v>
@@ -5876,187 +5847,190 @@
         <v>138</v>
       </c>
     </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
       <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" t="s">
+        <v>136</v>
+      </c>
+      <c r="J28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
+        <v>137</v>
+      </c>
+      <c r="H29" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F31" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" t="s">
         <v>120</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I31" t="s">
         <v>114</v>
       </c>
-      <c r="H28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J31" t="s">
         <v>115</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K31" t="s">
         <v>113</v>
-      </c>
-      <c r="K28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>7</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>6</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" t="s">
-        <v>136</v>
-      </c>
-      <c r="H30" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" t="s">
-        <v>138</v>
-      </c>
-      <c r="J30" t="s">
-        <v>137</v>
-      </c>
-      <c r="K30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" t="s">
-        <v>139</v>
-      </c>
-      <c r="J31" t="s">
-        <v>137</v>
-      </c>
-      <c r="K31" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
         <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
         <v>138</v>
       </c>
       <c r="E32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" t="s">
         <v>138</v>
       </c>
-      <c r="F32" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" t="s">
         <v>137</v>
       </c>
-      <c r="H32" t="s">
-        <v>137</v>
-      </c>
-      <c r="I32" t="s">
-        <v>136</v>
-      </c>
-      <c r="J32" t="s">
-        <v>136</v>
-      </c>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
         <v>137</v>
       </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E33" t="s">
         <v>136</v>
@@ -6065,399 +6039,159 @@
         <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I33" t="s">
         <v>138</v>
       </c>
       <c r="J33" t="s">
+        <v>139</v>
+      </c>
+      <c r="K33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" t="s">
         <v>138</v>
       </c>
-      <c r="K33" t="s">
-        <v>136</v>
+      <c r="G34" t="s">
+        <v>137</v>
+      </c>
+      <c r="H34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J34" t="s">
+        <v>136</v>
+      </c>
+      <c r="K34" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
       <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>136</v>
+      </c>
+      <c r="G35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H35" t="s">
+        <v>136</v>
+      </c>
+      <c r="I35" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" t="s">
+        <v>138</v>
+      </c>
+      <c r="K35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2013</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" t="s">
         <v>112</v>
       </c>
-      <c r="C35" t="s">
+      <c r="I37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" t="s">
+        <v>116</v>
+      </c>
+      <c r="K37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
         <v>119</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" t="s">
         <v>116</v>
       </c>
-      <c r="E35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J38" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" t="s">
         <v>114</v>
-      </c>
-      <c r="J35" t="s">
-        <v>115</v>
-      </c>
-      <c r="K35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
-        <v>8</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="J36">
-        <v>9</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" t="s">
-        <v>138</v>
-      </c>
-      <c r="I37" t="s">
-        <v>138</v>
-      </c>
-      <c r="J37" t="s">
-        <v>137</v>
-      </c>
-      <c r="K37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F38" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H38" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" t="s">
-        <v>138</v>
-      </c>
-      <c r="J38" t="s">
-        <v>139</v>
-      </c>
-      <c r="K38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" t="s">
-        <v>137</v>
-      </c>
-      <c r="I39" t="s">
-        <v>136</v>
-      </c>
-      <c r="J39" t="s">
-        <v>136</v>
-      </c>
-      <c r="K39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" t="s">
-        <v>137</v>
-      </c>
-      <c r="F40" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" t="s">
-        <v>140</v>
-      </c>
-      <c r="J40" t="s">
-        <v>138</v>
-      </c>
-      <c r="K40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2013</v>
-      </c>
-      <c r="B42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" t="s">
-        <v>113</v>
-      </c>
-      <c r="H42" t="s">
-        <v>112</v>
-      </c>
-      <c r="I42" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" t="s">
-        <v>116</v>
-      </c>
-      <c r="K42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>9</v>
-      </c>
-      <c r="G43">
-        <v>7</v>
-      </c>
-      <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <v>5</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2012</v>
-      </c>
-      <c r="B44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" t="s">
-        <v>117</v>
-      </c>
-      <c r="I44" t="s">
-        <v>116</v>
-      </c>
-      <c r="J44" t="s">
-        <v>115</v>
-      </c>
-      <c r="K44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
-      </c>
-      <c r="G45">
-        <v>9</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="J45">
-        <v>10</v>
-      </c>
-      <c r="K45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <f>SUM(B1:B46)</f>
-        <v>45</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ref="C47:K47" si="0">SUM(C1:C46)</f>
-        <v>28</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="0"/>
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/research/IDP.xlsx
+++ b/research/IDP.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\ffb\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BC3C86-0F6A-4901-8B08-6F5F6602D088}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEDC1AA-DFB2-4BBB-8904-12895B22B71F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="750" windowWidth="21600" windowHeight="13980" activeTab="1" xr2:uid="{09F0370E-5173-443F-8D9F-0088E41DB1DD}"/>
+    <workbookView xWindow="29520" yWindow="765" windowWidth="27030" windowHeight="14595" activeTab="1" xr2:uid="{09F0370E-5173-443F-8D9F-0088E41DB1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$197</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="302">
   <si>
     <t>Fantasy</t>
   </si>
@@ -545,6 +546,402 @@
   </si>
   <si>
     <t>Bell</t>
+  </si>
+  <si>
+    <t>Jason Pierre</t>
+  </si>
+  <si>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>LAR</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>NYJ</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Cin</t>
+  </si>
+  <si>
+    <t>Dal</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Buf</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>NYG</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>Was</t>
+  </si>
+  <si>
+    <t>Hou</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Det</t>
+  </si>
+  <si>
+    <t>KC</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>Pit</t>
+  </si>
+  <si>
+    <t>Ari</t>
+  </si>
+  <si>
+    <t>Jax</t>
+  </si>
+  <si>
+    <t>Atl</t>
+  </si>
+  <si>
+    <t>Cle</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Darius Leonard</t>
+  </si>
+  <si>
+    <t>Cory Littleton</t>
+  </si>
+  <si>
+    <t>Bobby Wagner</t>
+  </si>
+  <si>
+    <t>Luke Kuechly</t>
+  </si>
+  <si>
+    <t>Telvin Smith</t>
+  </si>
+  <si>
+    <t>Jamal Adams</t>
+  </si>
+  <si>
+    <t>Blake Martinez</t>
+  </si>
+  <si>
+    <t>Leighton VanderEsch</t>
+  </si>
+  <si>
+    <t>Desmond King</t>
+  </si>
+  <si>
+    <t>Shawn Williams</t>
+  </si>
+  <si>
+    <t>Jaylon Smith</t>
+  </si>
+  <si>
+    <t>Lavonte David</t>
+  </si>
+  <si>
+    <t>Tremaine Edmunds</t>
+  </si>
+  <si>
+    <t>Roquan Smith</t>
+  </si>
+  <si>
+    <t>John Johnson</t>
+  </si>
+  <si>
+    <t>Kiko Alonso</t>
+  </si>
+  <si>
+    <t>Avery Williamson</t>
+  </si>
+  <si>
+    <t>Antoine Bethea</t>
+  </si>
+  <si>
+    <t>Aaron Donald</t>
+  </si>
+  <si>
+    <t>Tahir Whitehead</t>
+  </si>
+  <si>
+    <t>Derwin James</t>
+  </si>
+  <si>
+    <t>Mason Foster</t>
+  </si>
+  <si>
+    <t>J.J. Watt</t>
+  </si>
+  <si>
+    <t>Demario Davis</t>
+  </si>
+  <si>
+    <t>Jayon Brown</t>
+  </si>
+  <si>
+    <t>Alec Ogletree</t>
+  </si>
+  <si>
+    <t>Jordan Poyer</t>
+  </si>
+  <si>
+    <t>Todd Davis</t>
+  </si>
+  <si>
+    <t>Danielle Hunter</t>
+  </si>
+  <si>
+    <t>Jamie Collins</t>
+  </si>
+  <si>
+    <t>Jarrad Davis</t>
+  </si>
+  <si>
+    <t>Anthony Hitchens</t>
+  </si>
+  <si>
+    <t>Danny Trevathan</t>
+  </si>
+  <si>
+    <t>Fred Warner</t>
+  </si>
+  <si>
+    <t>Justin Reid</t>
+  </si>
+  <si>
+    <t>Jessie Bates</t>
+  </si>
+  <si>
+    <t>Malcolm Jenkins</t>
+  </si>
+  <si>
+    <t>T.J. Watt</t>
+  </si>
+  <si>
+    <t>Budda Baker</t>
+  </si>
+  <si>
+    <t>Kareem Jackson</t>
+  </si>
+  <si>
+    <t>Zach Cunningham</t>
+  </si>
+  <si>
+    <t>Eddie Jackson</t>
+  </si>
+  <si>
+    <t>Harrison Smith</t>
+  </si>
+  <si>
+    <t>Myles Jack</t>
+  </si>
+  <si>
+    <t>HaHa Clinton-Dix</t>
+  </si>
+  <si>
+    <t>Kevin Byard</t>
+  </si>
+  <si>
+    <t>Lorenzo Alexander</t>
+  </si>
+  <si>
+    <t>Kyle Van</t>
+  </si>
+  <si>
+    <t>Calais Campbell</t>
+  </si>
+  <si>
+    <t>Wesley Woodyard</t>
+  </si>
+  <si>
+    <t>Damontae Kazee</t>
+  </si>
+  <si>
+    <t>Anthony Walker</t>
+  </si>
+  <si>
+    <t>Eric Kendricks</t>
+  </si>
+  <si>
+    <t>Tyrann Mathieu</t>
+  </si>
+  <si>
+    <t>Chris Jones</t>
+  </si>
+  <si>
+    <t>Damarious Randall</t>
+  </si>
+  <si>
+    <t>Khalil Mack</t>
+  </si>
+  <si>
+    <t>Joe Schobert</t>
+  </si>
+  <si>
+    <t>Malcolm Butler</t>
+  </si>
+  <si>
+    <t>Benardrick McKinney</t>
+  </si>
+  <si>
+    <t>Justin Simmons</t>
+  </si>
+  <si>
+    <t>Bradley McDougald</t>
+  </si>
+  <si>
+    <t>C.J. Mosley</t>
+  </si>
+  <si>
+    <t>Kenny Moore</t>
+  </si>
+  <si>
+    <t>Dee Ford</t>
+  </si>
+  <si>
+    <t>Von Miller</t>
+  </si>
+  <si>
+    <t>DeForest Buckner</t>
+  </si>
+  <si>
+    <t>Matt Milano</t>
+  </si>
+  <si>
+    <t>Zach Brown</t>
+  </si>
+  <si>
+    <t>Quandre Diggs</t>
+  </si>
+  <si>
+    <t>DeMarcus Lawrence</t>
+  </si>
+  <si>
+    <t>Prince Amukamara</t>
+  </si>
+  <si>
+    <t>Raekwon McMillan</t>
+  </si>
+  <si>
+    <t>Reshad Jones</t>
+  </si>
+  <si>
+    <t>Donte Jackson</t>
+  </si>
+  <si>
+    <t>Adrian Phillips</t>
+  </si>
+  <si>
+    <t>Steven Nelson</t>
+  </si>
+  <si>
+    <t>Curtis Riley</t>
+  </si>
+  <si>
+    <t>Nigel Bradham</t>
+  </si>
+  <si>
+    <t>Tre Boston</t>
+  </si>
+  <si>
+    <t>Bradley Chubb</t>
+  </si>
+  <si>
+    <t>Kyle Fuller</t>
+  </si>
+  <si>
+    <t>Eli Apple</t>
+  </si>
+  <si>
+    <t>Kendall Fuller</t>
+  </si>
+  <si>
+    <t>Jordan Hicks</t>
+  </si>
+  <si>
+    <t>Chandler Jones</t>
+  </si>
+  <si>
+    <t>Devin McCourty</t>
+  </si>
+  <si>
+    <t>Cameron Jordan</t>
+  </si>
+  <si>
+    <t>Jeff Heath</t>
+  </si>
+  <si>
+    <t>T.J. McDonald</t>
+  </si>
+  <si>
+    <t>Landon Collins</t>
+  </si>
+  <si>
+    <t>Ron Parker</t>
+  </si>
+  <si>
+    <t>Jatavis Brown</t>
+  </si>
+  <si>
+    <t>Vince Williams</t>
+  </si>
+  <si>
+    <t>Minkah Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Jerome Baker</t>
+  </si>
+  <si>
+    <t>Janoris Jenkins</t>
+  </si>
+  <si>
+    <t>Brian Poole</t>
+  </si>
+  <si>
+    <t>Myles Garrett</t>
+  </si>
+  <si>
+    <t>IDP</t>
   </si>
 </sst>
 </file>
@@ -946,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D8C44A-FBDF-4114-95E5-2FDCBEAE6E89}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -5159,11 +5556,2032 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B93588-72C2-4F75-B923-764217789420}">
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDEF86D-8FC0-474D-9408-3ECCCA459074}">
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1">
+        <v>200</v>
+      </c>
+      <c r="D1">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2">
+        <v>201</v>
+      </c>
+      <c r="D2">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3">
+        <v>202</v>
+      </c>
+      <c r="D3">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4">
+        <v>203</v>
+      </c>
+      <c r="D4">
+        <v>203</v>
+      </c>
+      <c r="E4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5">
+        <v>204</v>
+      </c>
+      <c r="D5">
+        <v>204</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6">
+        <v>205</v>
+      </c>
+      <c r="D6">
+        <v>205</v>
+      </c>
+      <c r="E6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7">
+        <v>206</v>
+      </c>
+      <c r="D7">
+        <v>206</v>
+      </c>
+      <c r="E7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8">
+        <v>207</v>
+      </c>
+      <c r="D8">
+        <v>207</v>
+      </c>
+      <c r="E8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C9">
+        <v>208</v>
+      </c>
+      <c r="D9">
+        <v>208</v>
+      </c>
+      <c r="E9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10">
+        <v>209</v>
+      </c>
+      <c r="D10">
+        <v>209</v>
+      </c>
+      <c r="E10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11">
+        <v>210</v>
+      </c>
+      <c r="D11">
+        <v>210</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12">
+        <v>211</v>
+      </c>
+      <c r="D12">
+        <v>211</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13">
+        <v>212</v>
+      </c>
+      <c r="D13">
+        <v>212</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14">
+        <v>213</v>
+      </c>
+      <c r="D14">
+        <v>213</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15">
+        <v>214</v>
+      </c>
+      <c r="D15">
+        <v>214</v>
+      </c>
+      <c r="E15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16">
+        <v>215</v>
+      </c>
+      <c r="D16">
+        <v>215</v>
+      </c>
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17">
+        <v>216</v>
+      </c>
+      <c r="D17">
+        <v>216</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18">
+        <v>217</v>
+      </c>
+      <c r="D18">
+        <v>217</v>
+      </c>
+      <c r="E18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C19">
+        <v>218</v>
+      </c>
+      <c r="D19">
+        <v>218</v>
+      </c>
+      <c r="E19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20">
+        <v>219</v>
+      </c>
+      <c r="D20">
+        <v>219</v>
+      </c>
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21">
+        <v>220</v>
+      </c>
+      <c r="D21">
+        <v>220</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22">
+        <v>221</v>
+      </c>
+      <c r="D22">
+        <v>221</v>
+      </c>
+      <c r="E22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23">
+        <v>222</v>
+      </c>
+      <c r="D23">
+        <v>222</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24">
+        <v>223</v>
+      </c>
+      <c r="D24">
+        <v>223</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25">
+        <v>224</v>
+      </c>
+      <c r="D25">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26">
+        <v>225</v>
+      </c>
+      <c r="D26">
+        <v>225</v>
+      </c>
+      <c r="E26" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27">
+        <v>226</v>
+      </c>
+      <c r="D27">
+        <v>226</v>
+      </c>
+      <c r="E27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28">
+        <v>227</v>
+      </c>
+      <c r="D28">
+        <v>227</v>
+      </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29">
+        <v>228</v>
+      </c>
+      <c r="D29">
+        <v>228</v>
+      </c>
+      <c r="E29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30">
+        <v>229</v>
+      </c>
+      <c r="D30">
+        <v>229</v>
+      </c>
+      <c r="E30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31">
+        <v>230</v>
+      </c>
+      <c r="D31">
+        <v>230</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C32">
+        <v>231</v>
+      </c>
+      <c r="D32">
+        <v>231</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33">
+        <v>232</v>
+      </c>
+      <c r="D33">
+        <v>232</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34">
+        <v>233</v>
+      </c>
+      <c r="D34">
+        <v>233</v>
+      </c>
+      <c r="E34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35">
+        <v>234</v>
+      </c>
+      <c r="D35">
+        <v>234</v>
+      </c>
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36">
+        <v>235</v>
+      </c>
+      <c r="D36">
+        <v>235</v>
+      </c>
+      <c r="E36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37">
+        <v>236</v>
+      </c>
+      <c r="D37">
+        <v>236</v>
+      </c>
+      <c r="E37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" t="s">
+        <v>301</v>
+      </c>
+      <c r="C38">
+        <v>237</v>
+      </c>
+      <c r="D38">
+        <v>237</v>
+      </c>
+      <c r="E38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C39">
+        <v>238</v>
+      </c>
+      <c r="D39">
+        <v>238</v>
+      </c>
+      <c r="E39" t="s">
+        <v>197</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" t="s">
+        <v>301</v>
+      </c>
+      <c r="C40">
+        <v>239</v>
+      </c>
+      <c r="D40">
+        <v>239</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41">
+        <v>240</v>
+      </c>
+      <c r="D41">
+        <v>240</v>
+      </c>
+      <c r="E41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42">
+        <v>241</v>
+      </c>
+      <c r="D42">
+        <v>241</v>
+      </c>
+      <c r="E42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" t="s">
+        <v>301</v>
+      </c>
+      <c r="C43">
+        <v>242</v>
+      </c>
+      <c r="D43">
+        <v>242</v>
+      </c>
+      <c r="E43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44">
+        <v>243</v>
+      </c>
+      <c r="D44">
+        <v>243</v>
+      </c>
+      <c r="E44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C45">
+        <v>244</v>
+      </c>
+      <c r="D45">
+        <v>244</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46">
+        <v>245</v>
+      </c>
+      <c r="D46">
+        <v>245</v>
+      </c>
+      <c r="E46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" t="s">
+        <v>301</v>
+      </c>
+      <c r="C47">
+        <v>246</v>
+      </c>
+      <c r="D47">
+        <v>246</v>
+      </c>
+      <c r="E47" t="s">
+        <v>180</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48">
+        <v>247</v>
+      </c>
+      <c r="D48">
+        <v>247</v>
+      </c>
+      <c r="E48" t="s">
+        <v>201</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49">
+        <v>248</v>
+      </c>
+      <c r="D49">
+        <v>248</v>
+      </c>
+      <c r="E49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C50">
+        <v>249</v>
+      </c>
+      <c r="D50">
+        <v>249</v>
+      </c>
+      <c r="E50" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51">
+        <v>250</v>
+      </c>
+      <c r="D51">
+        <v>250</v>
+      </c>
+      <c r="E51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52">
+        <v>251</v>
+      </c>
+      <c r="D52">
+        <v>251</v>
+      </c>
+      <c r="E52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s">
+        <v>301</v>
+      </c>
+      <c r="C53">
+        <v>252</v>
+      </c>
+      <c r="D53">
+        <v>252</v>
+      </c>
+      <c r="E53" t="s">
+        <v>191</v>
+      </c>
+      <c r="F53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54">
+        <v>253</v>
+      </c>
+      <c r="D54">
+        <v>253</v>
+      </c>
+      <c r="E54" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C55">
+        <v>254</v>
+      </c>
+      <c r="D55">
+        <v>254</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56">
+        <v>255</v>
+      </c>
+      <c r="D56">
+        <v>255</v>
+      </c>
+      <c r="E56" t="s">
+        <v>200</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57">
+        <v>256</v>
+      </c>
+      <c r="D57">
+        <v>256</v>
+      </c>
+      <c r="E57" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" t="s">
+        <v>301</v>
+      </c>
+      <c r="C58">
+        <v>257</v>
+      </c>
+      <c r="D58">
+        <v>257</v>
+      </c>
+      <c r="E58" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>301</v>
+      </c>
+      <c r="C59">
+        <v>258</v>
+      </c>
+      <c r="D59">
+        <v>258</v>
+      </c>
+      <c r="E59" t="s">
+        <v>189</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>301</v>
+      </c>
+      <c r="C60">
+        <v>259</v>
+      </c>
+      <c r="D60">
+        <v>259</v>
+      </c>
+      <c r="E60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61">
+        <v>260</v>
+      </c>
+      <c r="D61">
+        <v>260</v>
+      </c>
+      <c r="E61" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" t="s">
+        <v>301</v>
+      </c>
+      <c r="C62">
+        <v>261</v>
+      </c>
+      <c r="D62">
+        <v>261</v>
+      </c>
+      <c r="E62" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" t="s">
+        <v>301</v>
+      </c>
+      <c r="C63">
+        <v>262</v>
+      </c>
+      <c r="D63">
+        <v>262</v>
+      </c>
+      <c r="E63" t="s">
+        <v>175</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" t="s">
+        <v>301</v>
+      </c>
+      <c r="C64">
+        <v>263</v>
+      </c>
+      <c r="D64">
+        <v>263</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" t="s">
+        <v>301</v>
+      </c>
+      <c r="C65">
+        <v>264</v>
+      </c>
+      <c r="D65">
+        <v>264</v>
+      </c>
+      <c r="E65" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66">
+        <v>265</v>
+      </c>
+      <c r="D66">
+        <v>265</v>
+      </c>
+      <c r="E66" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" t="s">
+        <v>301</v>
+      </c>
+      <c r="C67">
+        <v>266</v>
+      </c>
+      <c r="D67">
+        <v>266</v>
+      </c>
+      <c r="E67" t="s">
+        <v>194</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68">
+        <v>267</v>
+      </c>
+      <c r="D68">
+        <v>267</v>
+      </c>
+      <c r="E68" t="s">
+        <v>180</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69">
+        <v>268</v>
+      </c>
+      <c r="D69">
+        <v>268</v>
+      </c>
+      <c r="E69" t="s">
+        <v>195</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" t="s">
+        <v>301</v>
+      </c>
+      <c r="C70">
+        <v>269</v>
+      </c>
+      <c r="D70">
+        <v>269</v>
+      </c>
+      <c r="E70" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>301</v>
+      </c>
+      <c r="C71">
+        <v>270</v>
+      </c>
+      <c r="D71">
+        <v>270</v>
+      </c>
+      <c r="E71" t="s">
+        <v>179</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" t="s">
+        <v>301</v>
+      </c>
+      <c r="C72">
+        <v>271</v>
+      </c>
+      <c r="D72">
+        <v>271</v>
+      </c>
+      <c r="E72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>273</v>
+      </c>
+      <c r="B73" t="s">
+        <v>301</v>
+      </c>
+      <c r="C73">
+        <v>272</v>
+      </c>
+      <c r="D73">
+        <v>272</v>
+      </c>
+      <c r="E73" t="s">
+        <v>181</v>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>274</v>
+      </c>
+      <c r="B74" t="s">
+        <v>301</v>
+      </c>
+      <c r="C74">
+        <v>273</v>
+      </c>
+      <c r="D74">
+        <v>273</v>
+      </c>
+      <c r="E74" t="s">
+        <v>182</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>275</v>
+      </c>
+      <c r="B75" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75">
+        <v>274</v>
+      </c>
+      <c r="D75">
+        <v>274</v>
+      </c>
+      <c r="E75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C76">
+        <v>275</v>
+      </c>
+      <c r="D76">
+        <v>275</v>
+      </c>
+      <c r="E76" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77">
+        <v>276</v>
+      </c>
+      <c r="D77">
+        <v>276</v>
+      </c>
+      <c r="E77" t="s">
+        <v>185</v>
+      </c>
+      <c r="F77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C78">
+        <v>277</v>
+      </c>
+      <c r="D78">
+        <v>277</v>
+      </c>
+      <c r="E78" t="s">
+        <v>196</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>279</v>
+      </c>
+      <c r="B79" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79">
+        <v>278</v>
+      </c>
+      <c r="D79">
+        <v>278</v>
+      </c>
+      <c r="E79" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>280</v>
+      </c>
+      <c r="B80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80">
+        <v>279</v>
+      </c>
+      <c r="D80">
+        <v>279</v>
+      </c>
+      <c r="E80" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>281</v>
+      </c>
+      <c r="B81" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81">
+        <v>280</v>
+      </c>
+      <c r="D81">
+        <v>280</v>
+      </c>
+      <c r="E81" t="s">
+        <v>174</v>
+      </c>
+      <c r="F81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>282</v>
+      </c>
+      <c r="B82" t="s">
+        <v>301</v>
+      </c>
+      <c r="C82">
+        <v>281</v>
+      </c>
+      <c r="D82">
+        <v>281</v>
+      </c>
+      <c r="E82" t="s">
+        <v>190</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>283</v>
+      </c>
+      <c r="B83" t="s">
+        <v>301</v>
+      </c>
+      <c r="C83">
+        <v>282</v>
+      </c>
+      <c r="D83">
+        <v>282</v>
+      </c>
+      <c r="E83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>284</v>
+      </c>
+      <c r="B84" t="s">
+        <v>301</v>
+      </c>
+      <c r="C84">
+        <v>283</v>
+      </c>
+      <c r="D84">
+        <v>283</v>
+      </c>
+      <c r="E84" t="s">
+        <v>188</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85" t="s">
+        <v>301</v>
+      </c>
+      <c r="C85">
+        <v>284</v>
+      </c>
+      <c r="D85">
+        <v>284</v>
+      </c>
+      <c r="E85" t="s">
+        <v>193</v>
+      </c>
+      <c r="F85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>286</v>
+      </c>
+      <c r="B86" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86">
+        <v>285</v>
+      </c>
+      <c r="D86">
+        <v>285</v>
+      </c>
+      <c r="E86" t="s">
+        <v>197</v>
+      </c>
+      <c r="F86">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>287</v>
+      </c>
+      <c r="B87" t="s">
+        <v>301</v>
+      </c>
+      <c r="C87">
+        <v>286</v>
+      </c>
+      <c r="D87">
+        <v>286</v>
+      </c>
+      <c r="E87" t="s">
+        <v>197</v>
+      </c>
+      <c r="F87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>288</v>
+      </c>
+      <c r="B88" t="s">
+        <v>301</v>
+      </c>
+      <c r="C88">
+        <v>287</v>
+      </c>
+      <c r="D88">
+        <v>287</v>
+      </c>
+      <c r="E88" t="s">
+        <v>201</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89">
+        <v>288</v>
+      </c>
+      <c r="D89">
+        <v>288</v>
+      </c>
+      <c r="E89" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>290</v>
+      </c>
+      <c r="B90" t="s">
+        <v>301</v>
+      </c>
+      <c r="C90">
+        <v>289</v>
+      </c>
+      <c r="D90">
+        <v>289</v>
+      </c>
+      <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>291</v>
+      </c>
+      <c r="B91" t="s">
+        <v>301</v>
+      </c>
+      <c r="C91">
+        <v>290</v>
+      </c>
+      <c r="D91">
+        <v>290</v>
+      </c>
+      <c r="E91" t="s">
+        <v>182</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92" t="s">
+        <v>301</v>
+      </c>
+      <c r="C92">
+        <v>291</v>
+      </c>
+      <c r="D92">
+        <v>291</v>
+      </c>
+      <c r="E92" t="s">
+        <v>186</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93" t="s">
+        <v>301</v>
+      </c>
+      <c r="C93">
+        <v>292</v>
+      </c>
+      <c r="D93">
+        <v>292</v>
+      </c>
+      <c r="E93" t="s">
+        <v>193</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>294</v>
+      </c>
+      <c r="B94" t="s">
+        <v>301</v>
+      </c>
+      <c r="C94">
+        <v>293</v>
+      </c>
+      <c r="D94">
+        <v>293</v>
+      </c>
+      <c r="E94" t="s">
+        <v>185</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>295</v>
+      </c>
+      <c r="B95" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95">
+        <v>294</v>
+      </c>
+      <c r="D95">
+        <v>294</v>
+      </c>
+      <c r="E95" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" t="s">
+        <v>301</v>
+      </c>
+      <c r="C96">
+        <v>295</v>
+      </c>
+      <c r="D96">
+        <v>295</v>
+      </c>
+      <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>297</v>
+      </c>
+      <c r="B97" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97">
+        <v>296</v>
+      </c>
+      <c r="D97">
+        <v>296</v>
+      </c>
+      <c r="E97" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98">
+        <v>297</v>
+      </c>
+      <c r="D98">
+        <v>297</v>
+      </c>
+      <c r="E98" t="s">
+        <v>183</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>299</v>
+      </c>
+      <c r="B99" t="s">
+        <v>301</v>
+      </c>
+      <c r="C99">
+        <v>298</v>
+      </c>
+      <c r="D99">
+        <v>298</v>
+      </c>
+      <c r="E99" t="s">
+        <v>175</v>
+      </c>
+      <c r="F99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" t="s">
+        <v>301</v>
+      </c>
+      <c r="C100">
+        <v>299</v>
+      </c>
+      <c r="D100">
+        <v>299</v>
+      </c>
+      <c r="E100" t="s">
+        <v>200</v>
+      </c>
+      <c r="F100">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B93588-72C2-4F75-B923-764217789420}">
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5173,7 +7591,7 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>111</v>
       </c>
@@ -5204,8 +7622,20 @@
       <c r="K1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1">
+        <v>7</v>
+      </c>
+      <c r="O1">
+        <v>8</v>
+      </c>
+      <c r="P1">
+        <v>9</v>
+      </c>
+      <c r="Q1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -5219,16 +7649,16 @@
         <v>149</v>
       </c>
       <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
         <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>155</v>
       </c>
       <c r="G2" t="s">
         <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>158</v>
@@ -5237,10 +7667,22 @@
         <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
@@ -5253,18 +7695,68 @@
       <c r="K3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>27</v>
+      </c>
+      <c r="O3">
+        <v>28</v>
+      </c>
+      <c r="P3">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>34</v>
+      </c>
+      <c r="O4">
+        <v>33</v>
+      </c>
+      <c r="P4">
+        <v>32</v>
+      </c>
+      <c r="Q4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>47</v>
+      </c>
+      <c r="O5">
+        <v>48</v>
+      </c>
+      <c r="P5">
+        <v>49</v>
+      </c>
+      <c r="Q5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>54</v>
+      </c>
+      <c r="O6">
+        <v>53</v>
+      </c>
+      <c r="P6">
+        <v>52</v>
+      </c>
+      <c r="Q6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>115</v>
       </c>
@@ -5295,8 +7787,20 @@
       <c r="K7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>67</v>
+      </c>
+      <c r="O7">
+        <v>68</v>
+      </c>
+      <c r="P7">
+        <v>69</v>
+      </c>
+      <c r="Q7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -5330,8 +7834,20 @@
       <c r="K8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>74</v>
+      </c>
+      <c r="O8">
+        <v>73</v>
+      </c>
+      <c r="P8">
+        <v>72</v>
+      </c>
+      <c r="Q8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -5365,8 +7881,20 @@
       <c r="K9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>87</v>
+      </c>
+      <c r="O9">
+        <v>88</v>
+      </c>
+      <c r="P9">
+        <v>89</v>
+      </c>
+      <c r="Q9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -5400,8 +7928,20 @@
       <c r="K10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>94</v>
+      </c>
+      <c r="O10">
+        <v>93</v>
+      </c>
+      <c r="P10">
+        <v>92</v>
+      </c>
+      <c r="Q10">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>132</v>
       </c>
@@ -5435,8 +7975,34 @@
       <c r="K11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>107</v>
+      </c>
+      <c r="O11">
+        <v>108</v>
+      </c>
+      <c r="P11">
+        <v>109</v>
+      </c>
+      <c r="Q11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>114</v>
+      </c>
+      <c r="O12">
+        <v>113</v>
+      </c>
+      <c r="P12">
+        <v>112</v>
+      </c>
+      <c r="Q12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>113</v>
       </c>
@@ -5467,8 +8033,20 @@
       <c r="K13" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>127</v>
+      </c>
+      <c r="O13">
+        <v>128</v>
+      </c>
+      <c r="P13">
+        <v>129</v>
+      </c>
+      <c r="Q13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -5502,8 +8080,20 @@
       <c r="K14" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>134</v>
+      </c>
+      <c r="O14">
+        <v>133</v>
+      </c>
+      <c r="P14">
+        <v>132</v>
+      </c>
+      <c r="Q14">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -5537,8 +8127,20 @@
       <c r="K15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>147</v>
+      </c>
+      <c r="O15">
+        <v>148</v>
+      </c>
+      <c r="P15">
+        <v>149</v>
+      </c>
+      <c r="Q15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -5572,8 +8174,20 @@
       <c r="K16" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>154</v>
+      </c>
+      <c r="O16">
+        <v>153</v>
+      </c>
+      <c r="P16">
+        <v>152</v>
+      </c>
+      <c r="Q16">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -5607,8 +8221,28 @@
       <c r="K17" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>168</v>
+      </c>
+      <c r="P17">
+        <v>169</v>
+      </c>
+      <c r="Q17">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>173</v>
+      </c>
+      <c r="P18">
+        <v>172</v>
+      </c>
+      <c r="Q18">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>116</v>
       </c>
@@ -5639,8 +8273,17 @@
       <c r="K19" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>188</v>
+      </c>
+      <c r="P19">
+        <v>189</v>
+      </c>
+      <c r="Q19">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -5674,8 +8317,17 @@
       <c r="K20" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>193</v>
+      </c>
+      <c r="P20">
+        <v>192</v>
+      </c>
+      <c r="Q20">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -5709,8 +8361,17 @@
       <c r="K21" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>208</v>
+      </c>
+      <c r="P21">
+        <v>209</v>
+      </c>
+      <c r="Q21">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>143</v>
       </c>
@@ -5744,8 +8405,17 @@
       <c r="K22" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>213</v>
+      </c>
+      <c r="P22">
+        <v>212</v>
+      </c>
+      <c r="Q22">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>144</v>
       </c>
@@ -5780,7 +8450,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>117</v>
       </c>
@@ -5812,7 +8482,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>145</v>
       </c>
@@ -5847,7 +8517,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -5882,7 +8552,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -5917,7 +8587,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -5952,7 +8622,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>112</v>
       </c>
@@ -5984,7 +8654,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>150</v>
       </c>
